--- a/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -437,10 +437,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.012909" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.910928" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.030336" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.129147" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="11.904837" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.838967" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.738527" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.039376" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
